--- a/biology/Botanique/Phragmidium_mucronatum/Phragmidium_mucronatum.xlsx
+++ b/biology/Botanique/Phragmidium_mucronatum/Phragmidium_mucronatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phragmidium mucronatum est une espèce de champignons basidiomycètes de la famille des Phragmidiaceae. Il s'agit d'un champignon phytopathogène à répartition cosmopolite en partie responsable de la rouille du rosier.
-Il affecte de nombreuses espèces et variétés du genre Rosa, notamment Rosa alba, Rosa canina (églantier), Rosa centifolia, Rosa damascena, Rosa gallica, Rosa majalis, Rosa rubiginosa, Rosa rugosa, Rosa villosa[2].
-Ce champignon effectue tout son cycle biologique, qui comprend cinq stades de développement, sur un seul hôte, le rosier, il est dit « parasite monœcique ». Au printemps, des pustules orange vif (écidies) apparaissent sur le pétioles, les rameaux et la face supérieure des feuilles. Pendant l'été, des pustules jaune orangé (urédies) se développent sur la face inférieure des feuilles, ainsi que des pustules brunes ou noires (télies) en fin d'été ou au début de l'automne. Le champignon hiverne habituellement sous la forme de téleutospores associés avec des feuilles mortes[3].
+Il affecte de nombreuses espèces et variétés du genre Rosa, notamment Rosa alba, Rosa canina (églantier), Rosa centifolia, Rosa damascena, Rosa gallica, Rosa majalis, Rosa rubiginosa, Rosa rugosa, Rosa villosa.
+Ce champignon effectue tout son cycle biologique, qui comprend cinq stades de développement, sur un seul hôte, le rosier, il est dit « parasite monœcique ». Au printemps, des pustules orange vif (écidies) apparaissent sur le pétioles, les rameaux et la face supérieure des feuilles. Pendant l'été, des pustules jaune orangé (urédies) se développent sur la face inférieure des feuilles, ainsi que des pustules brunes ou noires (télies) en fin d'été ou au début de l'automne. Le champignon hiverne habituellement sous la forme de téleutospores associés avec des feuilles mortes.
 	Phragmidium mucronatum
 			urédies
 			télies
@@ -518,9 +530,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (14 aout 2015)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 aout 2015) :
 Aregma disciflora Arthur 1899
 Aregma mucronatum (Pers.) Fr. 1832
 Aregma phragmidium Fr. 1832
